--- a/TNR_JDD/JDD.RO.ZON.xlsx
+++ b/TNR_JDD/JDD.RO.ZON.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7miGJB145+XjvFRRt+oIQ2avMJ1fNw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjHWFuFmkGNSOI6koCYFsqocN28tg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -39,18 +39,24 @@
     <t>JM Lafarge</t>
   </si>
   <si>
-    <t>DRAFT</t>
+    <t>Création de l'onglet 001 pour la table ZON</t>
   </si>
   <si>
     <t>Version de Mainta pour laquelle le JDD de référence est validé</t>
   </si>
   <si>
+    <t>Création de l'onglet 001A pour la table ZONLIG</t>
+  </si>
+  <si>
     <t>Onglet</t>
   </si>
   <si>
     <t>TABLE</t>
   </si>
   <si>
+    <t>TYPE</t>
+  </si>
+  <si>
     <t>Num écran</t>
   </si>
   <si>
@@ -66,6 +72,9 @@
     <t>Libellé des champs (colonnes)</t>
   </si>
   <si>
+    <t>PK en rouge</t>
+  </si>
+  <si>
     <t>La rubrique n'est pas présente dans l'IHM</t>
   </si>
   <si>
@@ -81,6 +90,9 @@
     <t>Identifiant technique zone</t>
   </si>
   <si>
+    <t>numeric</t>
+  </si>
+  <si>
     <t>Calculé</t>
   </si>
   <si>
@@ -93,18 +105,27 @@
     <t>Code zone</t>
   </si>
   <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
     <t>ST_DES</t>
   </si>
   <si>
     <t>Désignation</t>
   </si>
   <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
     <t>ST_INA</t>
   </si>
   <si>
     <t>Inactif</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>ID_CODUTI</t>
   </si>
   <si>
@@ -138,6 +159,9 @@
     <t>Trace date création</t>
   </si>
   <si>
+    <t>datetime</t>
+  </si>
+  <si>
     <t>DT_TRAUPD</t>
   </si>
   <si>
@@ -172,6 +196,9 @@
   </si>
   <si>
     <t>Type d'élément regroupé</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
   </si>
   <si>
     <t>Quelles valeurs attendues ?</t>
@@ -235,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -254,8 +281,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -279,6 +315,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
@@ -289,7 +331,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -299,7 +341,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -371,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -388,6 +432,17 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -397,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -410,14 +465,23 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -426,73 +490,94 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf quotePrefix="1" borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -500,7 +585,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -732,7 +817,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="29.88"/>
+    <col customWidth="1" min="3" max="3" width="49.13"/>
     <col customWidth="1" min="4" max="4" width="10.63"/>
     <col customWidth="1" min="5" max="5" width="12.13"/>
     <col customWidth="1" min="6" max="26" width="10.63"/>
@@ -762,19 +847,25 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="2">
+        <v>44886.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
@@ -1878,703 +1969,780 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="13.5"/>
     <col customWidth="1" min="2" max="2" width="61.5"/>
-    <col customWidth="1" min="3" max="3" width="24.38"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="12.5"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col customWidth="1" min="3" max="4" width="24.38"/>
+    <col customWidth="1" min="5" max="5" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="12.5"/>
+    <col customWidth="1" min="7" max="27" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="A3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="7">
         <v>1586.0</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
+      <c r="B4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28">
+        <v>1587.0</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="B16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="E16" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="F16" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="D19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="13" t="s">
+      <c r="D23" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="20">
-        <v>1587.0</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="B27" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="22" t="s">
+      <c r="D27" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
     </row>
     <row r="28" ht="12.75" customHeight="1"/>
     <row r="30" ht="12.75" customHeight="1"/>
@@ -3462,177 +3630,177 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="A1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="27" t="s">
+      <c r="D1" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>39</v>
+      <c r="G1" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="A2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="A3" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="A4" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
+      <c r="A5" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
     </row>
     <row r="11">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3650,168 +3818,168 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="M1" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="A2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="A3" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="A4" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+      <c r="A5" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
